--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ironpython_training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C7E8FB-FEE4-41A3-A24F-3B1068E7F84E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCD154E-6F7A-46C1-9090-04A757F7E73C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6780" xr2:uid="{D0F326F7-DA7D-4940-AA39-7C8E51C08E31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6780" xr2:uid="{0153F149-F298-41E9-97B0-E933CC7AF361}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>nameCRaM7ph3</t>
+    <t>nameFJM</t>
   </si>
   <si>
-    <t>nameCBmRr</t>
+    <t>nameCjt0Mo</t>
   </si>
   <si>
-    <t>namepDO0</t>
+    <t>nameh1V</t>
   </si>
   <si>
-    <t>name  K</t>
+    <t>namentu</t>
   </si>
   <si>
-    <t>name9</t>
+    <t>name7AM</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94093A9-0D98-4074-B75D-0051201C4CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1134BC6D-49C2-40DA-8E63-AF5059DBA5BF}">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
